--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-20/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>vocab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-20/subjects/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative variables describing ...</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1214,11 +1214,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1262,17 +1258,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1313,17 +1309,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4645-9442</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1364,17 +1360,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9719-9161</t>
+          <t>enter date of creation in the form bellow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1415,17 +1411,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9346-0190</t>
+          <t>2022-06-04T19:37:30+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1466,19 +1462,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-8954-0470</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1517,38 +1505,114 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-8888-635X</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1568,19 +1632,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-1352-9213</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1598,7 +1654,11 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1619,19 +1679,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-6796-6780</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1649,7 +1701,11 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1670,19 +1726,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9432-4297</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1700,7 +1748,11 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1721,19 +1773,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-5914-3554</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1751,7 +1795,11 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1772,19 +1820,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5323-3180</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1802,7 +1842,11 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -1823,19 +1867,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1874,19 +1910,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.1.1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1925,19 +1953,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dct:created</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2021-08-23T16:13+00:00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1976,19 +1996,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:modified</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2022-06-04T11:26:36+00:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -2027,7 +2039,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2070,114 +2082,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2197,21 +2125,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:1000</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>levels of IgG subclasses to Flu antigens</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2227,11 +2147,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -2252,81 +2168,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:1001</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>IgG1-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2347,27 +2211,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:1002</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>IgG2-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2378,18 +2230,10 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2410,27 +2254,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:1003</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>IgG3-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2441,18 +2273,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2473,27 +2297,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:1004</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>IgG4-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2504,18 +2316,10 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2536,21 +2340,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:1005</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>level of surface antigenexpression</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2563,11 +2359,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2591,27 +2383,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:1006</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CD3</t>
-        </is>
-      </c>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>level of CD3 expression</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2622,11 +2402,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2650,21 +2426,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:1007</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>level of cytokine expreesion/secretion</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2677,11 +2445,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2705,27 +2469,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:1008</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>IFNg</t>
-        </is>
-      </c>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>level of IFNg expression/secretion</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2736,11 +2488,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2764,21 +2512,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:1009</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Chemokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>level of chemokine expression</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2791,11 +2531,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2819,7 +2555,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive-vars:1010</t>
+          <t>vocab:1021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2862,7 +2598,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incentive-vars:1011</t>
+          <t>vocab:1022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2905,7 +2641,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>incentive-vars:1012</t>
+          <t>vocab:1023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2948,7 +2684,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>incentive-vars:1013</t>
+          <t>vocab:1024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2991,7 +2727,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>incentive-vars:1014</t>
+          <t>vocab:1025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3034,7 +2770,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>incentive-vars:1015</t>
+          <t>vocab:1026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3077,7 +2813,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>incentive-vars:1016</t>
+          <t>vocab:1027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3120,7 +2856,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>incentive-vars:1017</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3163,7 +2899,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>incentive-vars:1018</t>
+          <t>vocab:1029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3206,7 +2942,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>incentive-vars:1019</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -3249,7 +2985,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incentive-vars:1020</t>
+          <t>vocab:1031</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3292,7 +3028,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>incentive-vars:1021</t>
+          <t>vocab:1032</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3335,7 +3071,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incentive-vars:1022</t>
+          <t>vocab:1033</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3378,7 +3114,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>incentive-vars:1023</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3418,479 +3154,6 @@
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>incentive-vars:1024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>incentive-vars:1025</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>incentive-vars:1026</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>incentive-vars:1027</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>incentive-vars:1028</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>incentive-vars:1029</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>incentive-vars:1030</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>incentive-vars:1031</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>incentive-vars:1032</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>incentive-vars:1033</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>incentive-vars:1034</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-20/subjects</t>
+          <t>http://purl.org/m4m20/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-20/subjects/</t>
+          <t>http://purl.org/m4m20/subjects/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-04T19:37:30+00:00</t>
+          <t>2022-06-04T21:44:07+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,105 +1515,109 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+          <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>iop:hasProperty</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>puv:statistic(separator=",")</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>puv:uom(separator=",")</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>puv:uom(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1635,9 +1639,21 @@
           <t>vocab:1000</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>test subject</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>alt test subject</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>some definition</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1654,11 +1670,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1701,11 +1713,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1748,11 +1756,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1795,11 +1799,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1842,11 +1842,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-04T21:44:07+00:00</t>
+          <t>2022-06-04T21:55:11+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>test subject</t>
+          <t>subject 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1694,7 +1694,11 @@
           <t>vocab:1001</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>subject 2</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1737,7 +1741,11 @@
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>subject 3</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1780,7 +1788,11 @@
           <t>vocab:1003</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>subject 4</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1823,7 +1835,11 @@
           <t>vocab:1004</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>subject 5</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1866,7 +1882,11 @@
           <t>vocab:1005</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>subject 6</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1909,7 +1929,11 @@
           <t>vocab:1006</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>subject 7</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1952,7 +1976,11 @@
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>subject 8</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1995,7 +2023,11 @@
           <t>vocab:1008</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>subject 9</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -2038,7 +2070,11 @@
           <t>vocab:1009</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>subject 10</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -2081,7 +2117,11 @@
           <t>vocab:1010</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>subject 11</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -2124,7 +2164,11 @@
           <t>vocab:1011</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>subject 12</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -2167,7 +2211,11 @@
           <t>vocab:1012</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>subject 13</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -2210,7 +2258,11 @@
           <t>vocab:1013</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>subject 14</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -2253,7 +2305,11 @@
           <t>vocab:1014</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>subject 15</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -2296,7 +2352,11 @@
           <t>vocab:1015</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>subject 16</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -2339,7 +2399,11 @@
           <t>vocab:1016</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>subject 17</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -2382,7 +2446,11 @@
           <t>vocab:1017</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>subject 18</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -2425,7 +2493,11 @@
           <t>vocab:1018</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>subject 19</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -2468,7 +2540,11 @@
           <t>vocab:1019</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>subject 20</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -2511,7 +2587,11 @@
           <t>vocab:1020</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>subject 21</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -2554,7 +2634,11 @@
           <t>vocab:1021</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>subject 22</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -2597,7 +2681,11 @@
           <t>vocab:1022</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>subject 23</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -2640,7 +2728,11 @@
           <t>vocab:1023</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>subject 24</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -2683,7 +2775,11 @@
           <t>vocab:1024</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>subject 25</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -2726,7 +2822,11 @@
           <t>vocab:1025</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>subject 26</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -2769,7 +2869,11 @@
           <t>vocab:1026</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>subject 27</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -2812,7 +2916,11 @@
           <t>vocab:1027</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>subject 28</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2855,7 +2963,11 @@
           <t>vocab:1028</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>subject 29</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -2898,7 +3010,11 @@
           <t>vocab:1029</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>subject 30</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -2941,7 +3057,11 @@
           <t>vocab:1030</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>subject 31</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -2984,7 +3104,11 @@
           <t>vocab:1031</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>subject 32</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -3027,7 +3151,11 @@
           <t>vocab:1032</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>subject 33</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -3070,7 +3198,11 @@
           <t>vocab:1033</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>subject 34</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -3113,7 +3245,11 @@
           <t>vocab:1034</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>subject 35</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-04T21:55:11+00:00</t>
+          <t>2022-06-05T08:38:24+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1688,1604 +1688,6 @@
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>subject 2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>subject 3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>subject 4</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vocab:1004</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>subject 5</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>vocab:1005</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>subject 6</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>subject 7</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>subject 8</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vocab:1008</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>subject 9</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vocab:1009</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>subject 10</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vocab:1010</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>subject 11</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>subject 12</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1012</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>subject 13</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vocab:1013</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>subject 14</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vocab:1014</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>subject 15</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>vocab:1015</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>subject 16</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vocab:1016</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>subject 17</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>subject 18</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vocab:1018</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>subject 19</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>vocab:1019</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>subject 20</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>subject 21</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>subject 22</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>vocab:1022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>subject 23</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>vocab:1023</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>subject 24</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>subject 25</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>vocab:1025</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>subject 26</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vocab:1026</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>subject 27</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>vocab:1027</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>subject 28</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>subject 29</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>vocab:1029</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>subject 30</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>vocab:1030</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>subject 31</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>vocab:1031</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>subject 32</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>vocab:1032</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>subject 33</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>vocab:1033</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>subject 34</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>vocab:1034</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>subject 35</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1309,12 +1309,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>enter date of creation in the form bellow</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1411,12 +1411,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:38:24+00:00</t>
+          <t>2022-06-11T17:03:41+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>subject 1</t>
+          <t>test subject</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T17:03:41+00:00</t>
+          <t>2022-06-11T17:12:32+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T17:12:32+00:00</t>
+          <t>2022-06-11T17:18:19+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T17:18:19+00:00</t>
+          <t>2022-06-11T17:43:10+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T17:43:10+00:00</t>
+          <t>2022-06-11T17:48:40+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T17:48:40+00:00</t>
+          <t>2022-06-19T17:23:02+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1688,6 +1688,57 @@
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>test subject</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,21 +456,6 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr"/>
       <c r="V1" t="inlineStr"/>
-      <c r="W1" t="inlineStr"/>
-      <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
-      <c r="AB1" t="inlineStr"/>
-      <c r="AC1" t="inlineStr"/>
-      <c r="AD1" t="inlineStr"/>
-      <c r="AE1" t="inlineStr"/>
-      <c r="AF1" t="inlineStr"/>
-      <c r="AG1" t="inlineStr"/>
-      <c r="AH1" t="inlineStr"/>
-      <c r="AI1" t="inlineStr"/>
-      <c r="AJ1" t="inlineStr"/>
-      <c r="AK1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -499,21 +484,6 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,21 +524,6 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -609,21 +564,6 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -664,21 +604,6 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -719,43 +644,16 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>iop</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>I-ADOPT Ontology</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -774,45 +672,24 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>A simple ontology which implements the Parameter Usage 
-Vocabulary semantic model, as described at 
-https://github.com/nvs-vocabs/P01.</t>
-        </is>
-      </c>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -831,43 +708,24 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Semantic Sensor Network Ontology</t>
-        </is>
-      </c>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -886,43 +744,24 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+          <t>Home page of community creating vocabulary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -941,43 +780,20 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -996,30 +812,23 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1039,36 +848,21 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1090,36 +884,21 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1141,36 +920,21 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>2022-06-20T06:20:41+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1192,34 +956,15 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Definition of terms</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1239,49 +984,78 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1290,48 +1064,53 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>prospective memory</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Remembering to do something in the future, such as taking one's medicine later.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -1341,48 +1120,49 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>metamemory</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Awareness of one’s own memory processes, often involving a conscious attempt to direct or control them. It is an aspect of metacognition.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://dictionary.apa.org/metamemory</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -1392,352 +1172,6 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:datetime</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2022-06-19T17:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>test subject</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>alt test subject</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>some definition</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>test subject</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,8 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr"/>
       <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +486,8 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +528,8 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,6 +570,8 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -604,6 +612,8 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +654,8 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -672,6 +684,8 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -681,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>Psychology subjects M4M-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,6 +722,8 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -744,6 +760,8 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -780,6 +798,8 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -787,7 +807,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -812,6 +836,8 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -848,6 +874,8 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -884,6 +912,8 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -920,6 +950,8 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -929,7 +961,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-20T06:20:41+00:00</t>
+          <t>2022-06-20T11:18:34+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -956,6 +988,8 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -984,6 +1018,8 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1028,35 +1064,39 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>skos:broaderMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1064,6 +1104,8 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1096,22 +1138,22 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>0000-0003-2195-3997</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1120,6 +1162,8 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1148,22 +1192,22 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>0000-0003-2195-3997</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1172,6 +1216,66 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>peer comparison</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Subjective evaluation of personal characteristics (e.g., ability level, personality traits, accomplishments) of oneself or another person in relation to the perceived characteristics of their peers.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,19 +842,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -880,17 +876,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -918,17 +914,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -956,17 +952,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-20T11:18:34+00:00</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -994,11 +990,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>dct:modified^^xsd:datetime</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022-06-20T11:30:28+00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1024,79 +1028,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:broaderMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1110,51 +1058,79 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>prospective memory</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Remembering to do something in the future, such as taking one's medicine later.</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:broaderMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1168,27 +1144,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>metamemory</t>
+          <t>prospective memory</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Awareness of one’s own memory processes, often involving a conscious attempt to direct or control them. It is an aspect of metacognition.</t>
+          <t>Remembering to do something in the future, such as taking one's medicine later.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://dictionary.apa.org/metamemory</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Prospective_Memory</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1222,33 +1206,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>peer comparison</t>
+          <t>metamemory</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Subjective evaluation of personal characteristics (e.g., ability level, personality traits, accomplishments) of oneself or another person in relation to the perceived characteristics of their peers.</t>
+          <t>Awareness of one’s own memory processes, often involving a conscious attempt to direct or control them. It is an aspect of metacognition.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>https://dictionary.apa.org/metamemory</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
@@ -1263,7 +1247,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0000-0003-0152-1441</t>
+          <t>0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1277,6 +1261,636 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>peer comparison</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Subjective evaluation of personal characteristics (e.g., ability level, personality traits, accomplishments) of oneself or another person in relation to the perceived characteristics of their peers.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>http://ontology.apa.org/apaonto/termsonlyOUT%20(5).owl#Social_Comparison</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>aging</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>self-reported memory</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0000-0003-0152-1441</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cognition</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>working memory</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>maintenance mechanism</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cognitive regulation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>regulation</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>behavioral regulation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>regulation</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>emotion regulation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>regulation</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>regulation</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
